--- a/Subject Data/total_data.xlsx
+++ b/Subject Data/total_data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{4E2F6454-4D9A-47E7-AA2A-65CAE865751F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1" xr2:uid="{4E2F6454-4D9A-47E7-AA2A-65CAE865751F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="33">
   <si>
     <t>RCEH</t>
   </si>
@@ -88,6 +89,42 @@
   <si>
     <t>SBSOD</t>
   </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>IZZO</t>
+  </si>
+  <si>
+    <t>SVBB</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>UVRZ</t>
+  </si>
+  <si>
+    <t>OGTB</t>
+  </si>
+  <si>
+    <t>BPPX</t>
+  </si>
+  <si>
+    <t>YFDE</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,16 +161,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,6 +221,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distance Error by SBSOD Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -202,10 +287,137 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>RDE by SBSOD</c:v>
+            <c:v>Resetting</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.8666666670000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1333333330000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1333333330000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.733333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4666666670000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.733333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1333333330000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.76407841616324579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87578372433424456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9637501229919505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20313699761866416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1599534818236887</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38888056117736947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52803382517598785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8578440076142515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27728934109616044</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57747317659229391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2278-436A-BD18-CC130CD42362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>WIP</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -245,120 +457,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$18</c:f>
+              <c:f>Sheet2!$D$12:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.4</c:v>
+                  <c:v>5.3333333329999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.266666667</c:v>
+                  <c:v>2.9333333330000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1333333330000004</c:v>
+                  <c:v>3.6666666669999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.733333333</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>3.9333333330000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4666666670000001</c:v>
+                  <c:v>2.4666666670000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.733333333</c:v>
+                  <c:v>2.1333333329999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>5.3333333329999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1333333330000004</c:v>
+                  <c:v>4.6666666670000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3333333329999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.9333333330000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6666666669999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9333333330000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.4666666670000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1333333329999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.733333333</c:v>
+                  <c:v>3.0666666669999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:f>Sheet2!$B$12:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.9637501229919505</c:v>
+                  <c:v>0.99463447155157392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.009635808553802</c:v>
+                  <c:v>0.71497616229069971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20313699761866416</c:v>
+                  <c:v>1.7718663750679049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1599534818236887</c:v>
+                  <c:v>1.7448622299617214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38888056117736947</c:v>
+                  <c:v>2.4959380802711926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52803382517598785</c:v>
+                  <c:v>1.9797375717774794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8578440076142515</c:v>
+                  <c:v>4.7418252081356629</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27728934109616044</c:v>
+                  <c:v>1.9597334145367185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57747317659229391</c:v>
+                  <c:v>1.2784523637446312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99463447155157392</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.71497616229069971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7718663750679049</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7448622299617214</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4959380802711926</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9797375717774794</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.7418252081356629</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3500947734990967</c:v>
+                  <c:v>1.7118414892106582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,7 +536,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000051-0F60-4BFE-AFCA-84723EE3C25E}"/>
+              <c16:uniqueId val="{00000002-2278-436A-BD18-CC130CD42362}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -378,11 +548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294725912"/>
-        <c:axId val="294720336"/>
+        <c:axId val="348069752"/>
+        <c:axId val="348071720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294725912"/>
+        <c:axId val="348069752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,6 +572,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SBSOD Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -439,12 +664,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294720336"/>
+        <c:crossAx val="348071720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294720336"/>
+        <c:axId val="348071720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,6 +689,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Relative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Distance Error</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -501,7 +786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294725912"/>
+        <c:crossAx val="348069752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -513,6 +798,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -565,6 +881,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Angular Error by SBSOD Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -604,7 +945,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>AE by SBSOD</c:v>
+            <c:v>Resetting</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -644,120 +985,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$18</c:f>
+              <c:f>Sheet2!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>3.8666666670000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1333333330000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.266666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.1333333330000004</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.733333333</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.5999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.4666666670000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.733333333</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.1333333330000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.3333333329999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.9333333330000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6666666669999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9333333330000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.4666666670000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1333333329999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.733333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$18</c:f>
+              <c:f>Sheet2!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>47.508591831210737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.506956453041504</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>80.186049830663634</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.11413683065755</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>24.153445547500247</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>57.120502057625814</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>29.420742851076106</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>33.961656204914149</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>48.417252149719239</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>30.92874689865268</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>50.301879721479565</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37.633731035953225</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39.260227524817026</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79.219545699723</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.982230445764493</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>51.502219157457844</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>57.574675277003607</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.7418252081356629</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65.754942543320936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,7 +1064,134 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-163C-439F-A54B-EAA7924D5B12}"/>
+              <c16:uniqueId val="{00000000-08D4-4195-891B-965ACDDC10BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>WIP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$12:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.3333333329999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9333333330000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6666666669999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9333333330000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4666666670000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1333333329999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3333333329999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6666666670000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0666666669999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$12:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>37.633731035953225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.260227524817026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.219545699723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.982230445764493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.502219157457844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.574675277003607</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7418252081356629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.918342293468939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.368368830000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.035270389275624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08D4-4195-891B-965ACDDC10BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -777,11 +1203,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400173872"/>
-        <c:axId val="400175840"/>
+        <c:axId val="444681344"/>
+        <c:axId val="444681672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400173872"/>
+        <c:axId val="444681344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,6 +1227,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SBSOD Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -838,12 +1319,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400175840"/>
+        <c:crossAx val="444681672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400175840"/>
+        <c:axId val="444681672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,6 +1344,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angular</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Error</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -900,7 +1441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400173872"/>
+        <c:crossAx val="444681344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -912,6 +1453,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2065,23 +2637,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9F3139-5279-47DE-A123-EF6E95512D43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F65AE6-62A6-4C11-BD8E-9337616C6F76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,23 +2673,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109EF238-3DE4-42B4-B36D-BBB0EBB81CCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388D4E41-2AAF-443F-A4EF-940B13CCE0CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,10 +3007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E713A88-990A-4F77-85FF-AB848F8570C3}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A22:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,7 +3020,7 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2461,248 +3033,908 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.76407841616324579</v>
+      </c>
+      <c r="C2">
+        <v>47.508591831210737</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.8666666670000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.87578372433424456</v>
+      </c>
+      <c r="C3">
+        <v>59.506956453041504</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.1333333330000004</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="2">
         <v>2.9637501229919505</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>80.186049830663634</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D4" s="4">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="2">
         <v>1.009635808553802</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>46.11413683065755</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D5" s="4">
         <v>3.266666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="2">
         <v>0.20313699761866416</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>24.153445547500247</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D6" s="4">
         <v>5.1333333330000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>1.1599534818236887</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>57.120502057625814</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D7" s="4">
         <v>4.733333333</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>0.38888056117736947</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8" s="1">
         <v>29.420742851076106</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D8" s="4">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>0.52803382517598785</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="1">
         <v>33.961656204914149</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D9" s="4">
         <v>5.4666666670000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="2">
         <v>0.8578440076142515</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>48.417252149719239</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D10" s="4">
         <v>3.733333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B11" s="2">
         <v>0.27728934109616044</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>30.92874689865268</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D11" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B12" s="2">
         <v>0.57747317659229391</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>50.301879721479565</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D12" s="4">
         <v>4.1333333330000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B13" s="2">
         <v>0.99463447155157392</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>37.633731035953225</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D13" s="4">
         <v>5.3333333329999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B14" s="2">
         <v>0.71497616229069971</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>39.260227524817026</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D14" s="4">
         <v>2.9333333330000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B15" s="2">
         <v>1.7718663750679049</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>79.219545699723</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D15" s="4">
         <v>3.6666666669999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B16" s="2">
         <v>1.7448622299617214</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>55.982230445764493</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D16" s="4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B17" s="2">
         <v>2.4959380802711926</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>51.502219157457844</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D17" s="4">
         <v>3.9333333330000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B18" s="2">
         <v>1.9797375717774794</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>57.574675277003607</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D18" s="4">
         <v>2.4666666670000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B19" s="2">
         <v>4.7418252081356629</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>4.7418252081356629</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D19" s="4">
         <v>2.1333333329999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B20" s="2">
         <v>1.3500947734990967</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>65.754942543320936</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D20" s="4">
         <v>4.733333333</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.4933758093619947</v>
+      </c>
+      <c r="C21">
+        <v>47.7743917463484</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.6666666669999999</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.9597334145367185</v>
+      </c>
+      <c r="C22">
+        <v>63.918342293468939</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.3333333329999997</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.2784523637446312</v>
+      </c>
+      <c r="C23">
+        <v>56.368368830000001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.7118414892106582</v>
+      </c>
+      <c r="C24">
+        <v>36.035270389275624</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34824EC5-5224-413B-A5DD-84B40C4AA8E4}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.76407841616324579</v>
+      </c>
+      <c r="C2">
+        <v>47.508591831210737</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.8666666670000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.87578372433424456</v>
+      </c>
+      <c r="C3">
+        <v>59.506956453041504</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.1333333330000004</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.9637501229919505</v>
+      </c>
+      <c r="C4">
+        <v>80.186049830663634</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.20313699761866416</v>
+      </c>
+      <c r="C5">
+        <v>24.153445547500247</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.1333333330000004</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.1599534818236887</v>
+      </c>
+      <c r="C6">
+        <v>57.120502057625814</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.733333333</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.38888056117736947</v>
+      </c>
+      <c r="C7" s="1">
+        <v>29.420742851076106</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.52803382517598785</v>
+      </c>
+      <c r="C8" s="1">
+        <v>33.961656204914149</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.4666666670000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.8578440076142515</v>
+      </c>
+      <c r="C9">
+        <v>48.417252149719239</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.733333333</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.27728934109616044</v>
+      </c>
+      <c r="C10">
+        <v>30.92874689865268</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.57747317659229391</v>
+      </c>
+      <c r="C11">
+        <v>50.301879721479565</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.1333333330000004</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.99463447155157392</v>
+      </c>
+      <c r="C12">
+        <v>37.633731035953225</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5.3333333329999997</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.71497616229069971</v>
+      </c>
+      <c r="C13">
+        <v>39.260227524817026</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.9333333330000002</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.7718663750679049</v>
+      </c>
+      <c r="C14">
+        <v>79.219545699723</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.6666666669999999</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.7448622299617214</v>
+      </c>
+      <c r="C15">
+        <v>55.982230445764493</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.4959380802711926</v>
+      </c>
+      <c r="C16">
+        <v>51.502219157457844</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.9333333330000002</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.9797375717774794</v>
+      </c>
+      <c r="C17">
+        <v>57.574675277003607</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.4666666670000001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4.7418252081356629</v>
+      </c>
+      <c r="C18">
+        <v>4.7418252081356629</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.1333333329999999</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.9597334145367185</v>
+      </c>
+      <c r="C19">
+        <v>63.918342293468939</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.3333333329999997</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.2784523637446312</v>
+      </c>
+      <c r="C20">
+        <v>56.368368830000001</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4.6666666670000003</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.7118414892106582</v>
+      </c>
+      <c r="C21">
+        <v>36.035270389275624</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.0666666669999998</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>